--- a/캐릭터 기획 모음/다온(도사_곰방대_연기)/스킬/몰아치는 연무.xlsx
+++ b/캐릭터 기획 모음/다온(도사_곰방대_연기)/스킬/몰아치는 연무.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20.DESKTOP-SELDRMC\OneDrive\바탕 화면\진선\기획\GameDesign\캐릭터 기획 모음\다온(도사_곰방대_연기)\스킬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7331E67E-61EF-4EDE-99F7-74FCA2BF4A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFA0B6E-E494-47C0-AE89-9F4E1F2B9967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="몰아치는 연무" sheetId="17" r:id="rId1"/>
@@ -1723,12 +1723,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1765,9 +1759,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,13 +1895,172 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1937,30 +2087,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1997,239 +2123,113 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2654,8 +2654,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="1704146" flipH="1">
-          <a:off x="7478235" y="4906130"/>
-          <a:ext cx="1682059" cy="1246838"/>
+          <a:off x="7461670" y="4903172"/>
+          <a:ext cx="1677917" cy="1243880"/>
           <a:chOff x="4653147" y="4816086"/>
           <a:chExt cx="2392315" cy="1775113"/>
         </a:xfrm>
@@ -3106,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88330893-4926-4AB9-A742-062B7262F8D7}">
   <dimension ref="B1:AQ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AT33" sqref="AT33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:AO51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3125,2255 +3125,2288 @@
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="113"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="93"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="115"/>
-      <c r="AO3" s="116"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="96"/>
     </row>
     <row r="4" spans="2:41" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="132" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="133"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="134"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="148"/>
+      <c r="AD4" s="148"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148"/>
+      <c r="AG4" s="148"/>
+      <c r="AH4" s="148"/>
+      <c r="AI4" s="148"/>
+      <c r="AJ4" s="148"/>
+      <c r="AK4" s="148"/>
+      <c r="AL4" s="148"/>
+      <c r="AM4" s="148"/>
+      <c r="AN4" s="148"/>
+      <c r="AO4" s="149"/>
     </row>
     <row r="5" spans="2:41" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="133" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="133"/>
-      <c r="AG5" s="133"/>
-      <c r="AH5" s="133"/>
-      <c r="AI5" s="133"/>
-      <c r="AJ5" s="133"/>
-      <c r="AK5" s="133"/>
-      <c r="AL5" s="133"/>
-      <c r="AM5" s="133"/>
-      <c r="AN5" s="133"/>
-      <c r="AO5" s="134"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="148"/>
+      <c r="AN5" s="148"/>
+      <c r="AO5" s="149"/>
     </row>
     <row r="6" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="118"/>
-      <c r="AO6" s="119"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="87"/>
     </row>
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="123">
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="137">
         <v>10002</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="124" t="s">
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="123" t="s">
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="125" t="s">
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="128" t="s">
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="124" t="s">
+      <c r="AB7" s="142"/>
+      <c r="AC7" s="142"/>
+      <c r="AD7" s="142"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="121"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="128" t="s">
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="131"/>
+      <c r="AL7" s="142"/>
+      <c r="AM7" s="142"/>
+      <c r="AN7" s="142"/>
+      <c r="AO7" s="144"/>
     </row>
     <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="64">
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="138">
         <v>100</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="75" t="s">
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="64" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="75" t="s">
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="64" t="s">
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="75" t="s">
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="138"/>
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="64" t="s">
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="137"/>
+      <c r="AL8" s="138"/>
+      <c r="AM8" s="138"/>
+      <c r="AN8" s="138"/>
+      <c r="AO8" s="145"/>
     </row>
     <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="64" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="137"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="138"/>
+      <c r="AL9" s="138"/>
+      <c r="AM9" s="138"/>
+      <c r="AN9" s="138"/>
+      <c r="AO9" s="145"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="146"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="146"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="147"/>
-      <c r="AF10" s="146"/>
-      <c r="AG10" s="146"/>
-      <c r="AH10" s="146"/>
-      <c r="AI10" s="146"/>
-      <c r="AJ10" s="146"/>
-      <c r="AK10" s="147"/>
-      <c r="AL10" s="147"/>
-      <c r="AM10" s="147"/>
-      <c r="AN10" s="147"/>
-      <c r="AO10" s="149"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="139"/>
+      <c r="AL10" s="139"/>
+      <c r="AM10" s="139"/>
+      <c r="AN10" s="139"/>
+      <c r="AO10" s="146"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="118"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="119"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="86"/>
+      <c r="AO11" s="87"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="139"/>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="139"/>
-      <c r="AJ12" s="139"/>
-      <c r="AK12" s="139"/>
-      <c r="AL12" s="139"/>
-      <c r="AM12" s="139"/>
-      <c r="AN12" s="139"/>
-      <c r="AO12" s="140"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="155"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="155"/>
+      <c r="AG12" s="155"/>
+      <c r="AH12" s="155"/>
+      <c r="AI12" s="155"/>
+      <c r="AJ12" s="155"/>
+      <c r="AK12" s="155"/>
+      <c r="AL12" s="155"/>
+      <c r="AM12" s="155"/>
+      <c r="AN12" s="155"/>
+      <c r="AO12" s="156"/>
     </row>
     <row r="13" spans="2:41" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="49">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="46">
         <v>0</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="53">
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="50">
         <v>30</v>
       </c>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="55">
+      <c r="Q13" s="51"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="52">
         <v>45</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="27"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="160"/>
+      <c r="AO13" s="24"/>
     </row>
     <row r="14" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="86" t="s">
+      <c r="C14" s="158"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="91" t="s">
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="89" t="s">
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="28"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="160"/>
+      <c r="AO14" s="25"/>
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="83" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="83" t="s">
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="84"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="29"/>
+      <c r="U15" s="126"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="161"/>
+      <c r="AO15" s="26"/>
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47">
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="44">
         <v>1</v>
       </c>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="29"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="162"/>
+      <c r="AO16" s="26"/>
     </row>
     <row r="17" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="167" t="s">
+      <c r="B17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="48">
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="45">
         <v>2</v>
       </c>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="48">
+      <c r="Q17" s="56"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="45">
         <v>3</v>
       </c>
-      <c r="V17" s="45"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="29"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="162"/>
+      <c r="AO17" s="26"/>
     </row>
     <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="142"/>
-      <c r="U18" s="142"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="143"/>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
-      <c r="AF18" s="143"/>
-      <c r="AG18" s="143"/>
-      <c r="AH18" s="143"/>
-      <c r="AI18" s="143"/>
-      <c r="AJ18" s="143"/>
-      <c r="AK18" s="143"/>
-      <c r="AL18" s="143"/>
-      <c r="AM18" s="143"/>
-      <c r="AN18" s="143"/>
-      <c r="AO18" s="144"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="152"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="152"/>
+      <c r="AD18" s="152"/>
+      <c r="AE18" s="152"/>
+      <c r="AF18" s="152"/>
+      <c r="AG18" s="152"/>
+      <c r="AH18" s="152"/>
+      <c r="AI18" s="152"/>
+      <c r="AJ18" s="152"/>
+      <c r="AK18" s="152"/>
+      <c r="AL18" s="152"/>
+      <c r="AM18" s="152"/>
+      <c r="AN18" s="152"/>
+      <c r="AO18" s="153"/>
     </row>
     <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="6"/>
     </row>
     <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="79" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="67" t="s">
+      <c r="D20" s="78"/>
+      <c r="E20" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="73" t="s">
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="U20" s="74"/>
-      <c r="V20" s="76" t="s">
+      <c r="U20" s="124"/>
+      <c r="V20" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="8"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="36"/>
-      <c r="T21" s="95" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="33"/>
+      <c r="T21" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="96"/>
-      <c r="V21" s="76" t="s">
+      <c r="U21" s="76"/>
+      <c r="V21" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="77"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="8"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="82"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="6"/>
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="6"/>
     </row>
     <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="6"/>
     </row>
     <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="39" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="8"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="6"/>
     </row>
     <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="6"/>
     </row>
     <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="40" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="8"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="6"/>
     </row>
     <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="6"/>
     </row>
     <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="6"/>
     </row>
     <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="172" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AD29" s="172"/>
-      <c r="AE29" s="172"/>
-      <c r="AF29" s="172"/>
-      <c r="AG29" s="172"/>
-      <c r="AH29" s="172"/>
-      <c r="AI29" s="172"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="8"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="84"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="6"/>
     </row>
     <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="6"/>
     </row>
     <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="6"/>
     </row>
     <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="6"/>
     </row>
     <row r="33" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="79" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="80"/>
-      <c r="G33" s="67" t="s">
+      <c r="F33" s="78"/>
+      <c r="G33" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="13"/>
-      <c r="AO33" s="8"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="6"/>
     </row>
     <row r="34" spans="2:43" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-      <c r="AO34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="6"/>
     </row>
     <row r="35" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="95" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="76" t="s">
+      <c r="F35" s="76"/>
+      <c r="G35" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="77"/>
-      <c r="U35" s="77"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="8"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="6"/>
       <c r="AQ35"/>
     </row>
     <row r="36" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="13"/>
-      <c r="AM36" s="13"/>
-      <c r="AN36" s="13"/>
-      <c r="AO36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="6"/>
     </row>
     <row r="37" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
-      <c r="AO37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="6"/>
     </row>
     <row r="38" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="6"/>
     </row>
     <row r="39" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="6"/>
     </row>
     <row r="40" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="6"/>
     </row>
     <row r="41" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="13"/>
-      <c r="AM41" s="13"/>
-      <c r="AN41" s="13"/>
-      <c r="AO41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="6"/>
     </row>
     <row r="42" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="13"/>
-      <c r="AM42" s="13"/>
-      <c r="AN42" s="13"/>
-      <c r="AO42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="6"/>
     </row>
     <row r="43" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="13"/>
-      <c r="AJ43" s="13"/>
-      <c r="AK43" s="13"/>
-      <c r="AL43" s="13"/>
-      <c r="AM43" s="13"/>
-      <c r="AN43" s="13"/>
-      <c r="AO43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="6"/>
     </row>
     <row r="44" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="13"/>
-      <c r="AK44" s="13"/>
-      <c r="AL44" s="13"/>
-      <c r="AM44" s="13"/>
-      <c r="AN44" s="13"/>
-      <c r="AO44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="6"/>
     </row>
     <row r="45" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
-      <c r="AL45" s="13"/>
-      <c r="AM45" s="13"/>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="6"/>
     </row>
     <row r="46" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="9"/>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="8"/>
     </row>
     <row r="47" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="117" t="s">
+      <c r="B47" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="118"/>
-      <c r="T47" s="118"/>
-      <c r="U47" s="118"/>
-      <c r="V47" s="118"/>
-      <c r="W47" s="118"/>
-      <c r="X47" s="118"/>
-      <c r="Y47" s="118"/>
-      <c r="Z47" s="118"/>
-      <c r="AA47" s="118"/>
-      <c r="AB47" s="118"/>
-      <c r="AC47" s="118"/>
-      <c r="AD47" s="118"/>
-      <c r="AE47" s="118"/>
-      <c r="AF47" s="118"/>
-      <c r="AG47" s="118"/>
-      <c r="AH47" s="118"/>
-      <c r="AI47" s="118"/>
-      <c r="AJ47" s="118"/>
-      <c r="AK47" s="118"/>
-      <c r="AL47" s="118"/>
-      <c r="AM47" s="118"/>
-      <c r="AN47" s="118"/>
-      <c r="AO47" s="119"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="86"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="86"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="86"/>
+      <c r="AD47" s="86"/>
+      <c r="AE47" s="86"/>
+      <c r="AF47" s="86"/>
+      <c r="AG47" s="86"/>
+      <c r="AH47" s="86"/>
+      <c r="AI47" s="86"/>
+      <c r="AJ47" s="86"/>
+      <c r="AK47" s="86"/>
+      <c r="AL47" s="86"/>
+      <c r="AM47" s="86"/>
+      <c r="AN47" s="86"/>
+      <c r="AO47" s="87"/>
     </row>
     <row r="48" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105" t="s">
+      <c r="C48" s="109"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="65" t="s">
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="65"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="100" t="s">
+      <c r="N48" s="106"/>
+      <c r="O48" s="107"/>
+      <c r="P48" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="65" t="s">
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="66"/>
-      <c r="AA48" s="100" t="s">
+      <c r="Y48" s="106"/>
+      <c r="Z48" s="107"/>
+      <c r="AA48" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="AB48" s="100"/>
-      <c r="AC48" s="100"/>
-      <c r="AD48" s="100"/>
-      <c r="AE48" s="100"/>
-      <c r="AF48" s="100"/>
-      <c r="AG48" s="100"/>
-      <c r="AH48" s="101"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
-      <c r="AL48" s="13"/>
-      <c r="AM48" s="13"/>
-      <c r="AN48" s="13"/>
-      <c r="AO48" s="8"/>
+      <c r="AB48" s="73"/>
+      <c r="AC48" s="73"/>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="73"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="74"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="6"/>
     </row>
     <row r="49" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="98" t="s">
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="165"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="98"/>
-      <c r="O49" s="98"/>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="98"/>
-      <c r="R49" s="98"/>
-      <c r="S49" s="98"/>
-      <c r="T49" s="99"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="98" t="s">
+      <c r="N49" s="164"/>
+      <c r="O49" s="164"/>
+      <c r="P49" s="164"/>
+      <c r="Q49" s="164"/>
+      <c r="R49" s="164"/>
+      <c r="S49" s="164"/>
+      <c r="T49" s="165"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="Y49" s="98"/>
-      <c r="Z49" s="98"/>
-      <c r="AA49" s="98"/>
-      <c r="AB49" s="98"/>
-      <c r="AC49" s="98"/>
-      <c r="AD49" s="98"/>
-      <c r="AE49" s="99"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="19"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="13"/>
-      <c r="AO49" s="8"/>
+      <c r="Y49" s="164"/>
+      <c r="Z49" s="164"/>
+      <c r="AA49" s="164"/>
+      <c r="AB49" s="164"/>
+      <c r="AC49" s="164"/>
+      <c r="AD49" s="164"/>
+      <c r="AE49" s="165"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="17"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="6"/>
     </row>
     <row r="50" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="170" t="s">
+      <c r="B50" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="150" t="s">
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="G50" s="167"/>
+      <c r="H50" s="167"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="N50" s="151"/>
-      <c r="O50" s="151"/>
-      <c r="P50" s="151"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151"/>
-      <c r="S50" s="151"/>
-      <c r="T50" s="152"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="150" t="s">
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
+      <c r="P50" s="167"/>
+      <c r="Q50" s="167"/>
+      <c r="R50" s="167"/>
+      <c r="S50" s="167"/>
+      <c r="T50" s="168"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="Y50" s="151"/>
-      <c r="Z50" s="151"/>
-      <c r="AA50" s="151"/>
-      <c r="AB50" s="151"/>
-      <c r="AC50" s="151"/>
-      <c r="AD50" s="151"/>
-      <c r="AE50" s="152"/>
-      <c r="AF50" s="23"/>
-      <c r="AG50" s="25"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="13"/>
-      <c r="AJ50" s="13"/>
-      <c r="AK50" s="13"/>
-      <c r="AL50" s="13"/>
-      <c r="AM50" s="13"/>
-      <c r="AN50" s="13"/>
-      <c r="AO50" s="8"/>
+      <c r="Y50" s="167"/>
+      <c r="Z50" s="167"/>
+      <c r="AA50" s="167"/>
+      <c r="AB50" s="167"/>
+      <c r="AC50" s="167"/>
+      <c r="AD50" s="167"/>
+      <c r="AE50" s="168"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="22"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="6"/>
     </row>
     <row r="51" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="171"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="153"/>
-      <c r="N51" s="153"/>
-      <c r="O51" s="153"/>
-      <c r="P51" s="153"/>
-      <c r="Q51" s="153"/>
-      <c r="R51" s="153"/>
-      <c r="S51" s="153"/>
-      <c r="T51" s="154"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="153"/>
-      <c r="Y51" s="153"/>
-      <c r="Z51" s="153"/>
-      <c r="AA51" s="153"/>
-      <c r="AB51" s="153"/>
-      <c r="AC51" s="153"/>
-      <c r="AD51" s="153"/>
-      <c r="AE51" s="154"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="18"/>
-      <c r="AI51" s="9"/>
-      <c r="AJ51" s="9"/>
-      <c r="AK51" s="9"/>
-      <c r="AL51" s="9"/>
-      <c r="AM51" s="9"/>
-      <c r="AN51" s="9"/>
-      <c r="AO51" s="10"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="170"/>
+      <c r="N51" s="170"/>
+      <c r="O51" s="170"/>
+      <c r="P51" s="170"/>
+      <c r="Q51" s="170"/>
+      <c r="R51" s="170"/>
+      <c r="S51" s="170"/>
+      <c r="T51" s="171"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="170"/>
+      <c r="Y51" s="170"/>
+      <c r="Z51" s="170"/>
+      <c r="AA51" s="170"/>
+      <c r="AB51" s="170"/>
+      <c r="AC51" s="170"/>
+      <c r="AD51" s="170"/>
+      <c r="AE51" s="171"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="15"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="X50:AE51"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B50:I51"/>
-    <mergeCell ref="AA48:AH48"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="V21:AK21"/>
-    <mergeCell ref="AC29:AI29"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="E20:Q21"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="G35:V35"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="V20:AJ20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="G33:S34"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="X49:AE49"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:W48"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="AF9:AJ9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="B2:AO3"/>
+    <mergeCell ref="B6:AO6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="AA7:AE7"/>
+    <mergeCell ref="AF7:AJ7"/>
+    <mergeCell ref="AK7:AO7"/>
+    <mergeCell ref="G4:AO4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:AO5"/>
     <mergeCell ref="AK8:AO8"/>
     <mergeCell ref="B47:AO47"/>
     <mergeCell ref="B12:AO12"/>
@@ -5390,52 +5423,19 @@
     <mergeCell ref="B11:AO11"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="B2:AO3"/>
-    <mergeCell ref="B6:AO6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="AA7:AE7"/>
-    <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="AK7:AO7"/>
-    <mergeCell ref="G4:AO4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:AO5"/>
-    <mergeCell ref="AF8:AJ8"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="X49:AE49"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:W48"/>
-    <mergeCell ref="M49:T49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="AF9:AJ9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="E20:Q21"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="G35:V35"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="J14:R14"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="V20:AJ20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="G33:S34"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="X50:AE51"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B50:I51"/>
+    <mergeCell ref="AA48:AH48"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="V21:AK21"/>
+    <mergeCell ref="AC29:AI29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
